--- a/jpcore-r4/feature/swg2-imagingstudy-radiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-imagingstudy-radiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T08:58:20+00:00</t>
+    <t>2024-10-24T02:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-imagingstudy-radiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg2-imagingstudy-radiology/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T02:24:05+00:00</t>
+    <t>2024-10-24T07:27:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
